--- a/Files/Vaccine_January 5, 2015.xlsx
+++ b/Files/Vaccine_January 5, 2015.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="346">
   <si>
     <t xml:space="preserve">Vaccine</t>
   </si>
@@ -44,7 +44,7 @@
     <t xml:space="preserve">Contract Number</t>
   </si>
   <si>
-    <t xml:space="preserve">DTaP [1]</t>
+    <t xml:space="preserve">DTaP </t>
   </si>
   <si>
     <t xml:space="preserve">Daptacel</t>
@@ -95,7 +95,7 @@
     <t xml:space="preserve">$21.44</t>
   </si>
   <si>
-    <t xml:space="preserve">DTaP-IPV [2]</t>
+    <t xml:space="preserve">DTaP-IPV </t>
   </si>
   <si>
     <t xml:space="preserve">Kinrix</t>
@@ -116,7 +116,7 @@
     <t xml:space="preserve">10 pack - 1 dose T-L syringes</t>
   </si>
   <si>
-    <t xml:space="preserve">DTaP-Hep B-IPV [4]</t>
+    <t xml:space="preserve">DTaP-Hep B-IPV </t>
   </si>
   <si>
     <t xml:space="preserve">Pediarix</t>
@@ -134,7 +134,7 @@
     <t xml:space="preserve">$70.72</t>
   </si>
   <si>
-    <t xml:space="preserve">DTaP-IP-HI [4]</t>
+    <t xml:space="preserve">DTaP-IP-HI </t>
   </si>
   <si>
     <t xml:space="preserve">Pentacel</t>
@@ -152,7 +152,7 @@
     <t xml:space="preserve">$80.43</t>
   </si>
   <si>
-    <t xml:space="preserve">e-IPV [5]</t>
+    <t xml:space="preserve">e-IPV </t>
   </si>
   <si>
     <t xml:space="preserve">IPOL</t>
@@ -170,7 +170,7 @@
     <t xml:space="preserve">$27.44</t>
   </si>
   <si>
-    <t xml:space="preserve">Hepatitis A Pediatric [5]</t>
+    <t xml:space="preserve">Hepatitis A Pediatric </t>
   </si>
   <si>
     <t xml:space="preserve">Vaqta</t>
@@ -218,7 +218,7 @@
     <t xml:space="preserve">58160-0825-52</t>
   </si>
   <si>
-    <t xml:space="preserve">Hepatitis A-Hepatitis B 18 only [3]</t>
+    <t xml:space="preserve">Hepatitis A-Hepatitis B 18 only </t>
   </si>
   <si>
     <t xml:space="preserve">Twinrix</t>
@@ -236,8 +236,7 @@
     <t xml:space="preserve">58160-0815-52</t>
   </si>
   <si>
-    <t xml:space="preserve">Hepatitis B [5]
-Pediatric/Adolescent</t>
+    <t xml:space="preserve">Hepatitis B  Pediatric/Adolescent</t>
   </si>
   <si>
     <t xml:space="preserve">Engerix B</t>
@@ -255,8 +254,7 @@
     <t xml:space="preserve">58160-0820-52</t>
   </si>
   <si>
-    <t xml:space="preserve">Recombivax
-HB</t>
+    <t xml:space="preserve">Recombivax HB</t>
   </si>
   <si>
     <t xml:space="preserve">00006-4981-00</t>
@@ -277,7 +275,7 @@
     <t xml:space="preserve">$23.95</t>
   </si>
   <si>
-    <t xml:space="preserve">Hib [5]</t>
+    <t xml:space="preserve">Hib </t>
   </si>
   <si>
     <t xml:space="preserve">PedvaxHIB</t>
@@ -304,7 +302,7 @@
     <t xml:space="preserve">$26.21</t>
   </si>
   <si>
-    <t xml:space="preserve">HIBMENCY [3]</t>
+    <t xml:space="preserve">HIBMENCY </t>
   </si>
   <si>
     <t xml:space="preserve">MENHIBRIX</t>
@@ -319,7 +317,7 @@
     <t xml:space="preserve">$23.60</t>
   </si>
   <si>
-    <t xml:space="preserve">HPV - Quadrivalent Human Papillomavirus Types 6, 11, 16 and 18 Recombinant [5]</t>
+    <t xml:space="preserve">HPV - Quadrivalent Human Papillomavirus Types 6, 11, 16 and 18 Recombinant </t>
   </si>
   <si>
     <t xml:space="preserve">Gardasil</t>
@@ -334,7 +332,7 @@
     <t xml:space="preserve">$141.38</t>
   </si>
   <si>
-    <t xml:space="preserve">HPV -Bivalent Human Papillomavirus Types 16 and 18 [5]</t>
+    <t xml:space="preserve">HPV -Bivalent Human Papillomavirus Types 16 and 18 </t>
   </si>
   <si>
     <t xml:space="preserve">Cervarix</t>
@@ -352,7 +350,7 @@
     <t xml:space="preserve">$128.75</t>
   </si>
   <si>
-    <t xml:space="preserve">Meningococcal Conjugate (Groups A, C, Y and W-135) [5]</t>
+    <t xml:space="preserve">Meningococcal Conjugate (Groups A, C, Y and W-135) </t>
   </si>
   <si>
     <t xml:space="preserve">Menactra</t>
@@ -385,7 +383,7 @@
     <t xml:space="preserve">200-2014-58153</t>
   </si>
   <si>
-    <t xml:space="preserve">Measles, Mumps and Rubella (MMR) [1]</t>
+    <t xml:space="preserve">Measles, Mumps and Rubella (MMR) </t>
   </si>
   <si>
     <t xml:space="preserve">M-M-RII</t>
@@ -400,7 +398,7 @@
     <t xml:space="preserve">$56.139</t>
   </si>
   <si>
-    <t xml:space="preserve">MMR/Varicella [2]</t>
+    <t xml:space="preserve">MMR/Varicella </t>
   </si>
   <si>
     <t xml:space="preserve">ProQuad</t>
@@ -415,8 +413,7 @@
     <t xml:space="preserve">$157.644</t>
   </si>
   <si>
-    <t xml:space="preserve">Pneumococcal
-13-valent [5] (Pediatric)</t>
+    <t xml:space="preserve">Pneumococcal 13-valent  (Pediatric)</t>
   </si>
   <si>
     <t xml:space="preserve">Prevnar 13 TM</t>
@@ -455,7 +452,7 @@
     <t xml:space="preserve">$68.287</t>
   </si>
   <si>
-    <t xml:space="preserve">Rotavirus, Live, Oral, Pentavalent [5]</t>
+    <t xml:space="preserve">Rotavirus, Live, Oral, Pentavalent </t>
   </si>
   <si>
     <t xml:space="preserve">RotaTeq</t>
@@ -479,7 +476,7 @@
     <t xml:space="preserve">25 pack - 1 dose 2mL tubes</t>
   </si>
   <si>
-    <t xml:space="preserve">Rotavirus, Live, Oral, Oral [5]</t>
+    <t xml:space="preserve">Rotavirus, Live, Oral, Oral </t>
   </si>
   <si>
     <t xml:space="preserve">Rotarix</t>
@@ -494,7 +491,7 @@
     <t xml:space="preserve">$106.57</t>
   </si>
   <si>
-    <t xml:space="preserve">Tetanus  Diphtheria Toxoids [3]</t>
+    <t xml:space="preserve">Tetanus  Diphtheria Toxoids </t>
   </si>
   <si>
     <t xml:space="preserve">Tenivac</t>
@@ -503,8 +500,7 @@
     <t xml:space="preserve">49281-0215-15</t>
   </si>
   <si>
-    <t xml:space="preserve">10 pack - 1 dose syringes
-No Needle</t>
+    <t xml:space="preserve">10 pack - 1 dose syringes No Needle</t>
   </si>
   <si>
     <t xml:space="preserve">$17.69</t>
@@ -516,7 +512,7 @@
     <t xml:space="preserve">49281-0215-10</t>
   </si>
   <si>
-    <t xml:space="preserve">Tetanus Toxoid, Reduced Diphtheria Toxoid and Acellular Pertussis [1]</t>
+    <t xml:space="preserve">Tetanus Toxoid, Reduced Diphtheria Toxoid and Acellular Pertussis </t>
   </si>
   <si>
     <t xml:space="preserve">Boostrix</t>
@@ -552,7 +548,7 @@
     <t xml:space="preserve">5 pack - 1 dose BD Leur-Lok syringes</t>
   </si>
   <si>
-    <t xml:space="preserve">Varicella [5]</t>
+    <t xml:space="preserve">Varicella </t>
   </si>
   <si>
     <t xml:space="preserve">Varivax</t>
@@ -567,7 +563,7 @@
     <t xml:space="preserve">$94.141</t>
   </si>
   <si>
-    <t xml:space="preserve">Hepatitis A Adult [5]</t>
+    <t xml:space="preserve">Hepatitis A Adult </t>
   </si>
   <si>
     <t xml:space="preserve">58160-0826-11</t>
@@ -588,7 +584,7 @@
     <t xml:space="preserve">$63.10</t>
   </si>
   <si>
-    <t xml:space="preserve">Hepatitis A-Adult [5]</t>
+    <t xml:space="preserve">Hepatitis A-Adult </t>
   </si>
   <si>
     <t xml:space="preserve">00006-4096-02</t>
@@ -609,7 +605,7 @@
     <t xml:space="preserve">$59.988</t>
   </si>
   <si>
-    <t xml:space="preserve">Hepatitis A-Hepatitis B Adult [3]</t>
+    <t xml:space="preserve">Hepatitis A-Hepatitis B Adult </t>
   </si>
   <si>
     <t xml:space="preserve">$51.20</t>
@@ -618,7 +614,7 @@
     <t xml:space="preserve">$51.76</t>
   </si>
   <si>
-    <t xml:space="preserve">Hepatitis B-Adult [5]</t>
+    <t xml:space="preserve">Hepatitis B-Adult </t>
   </si>
   <si>
     <t xml:space="preserve">ENGERIX-B</t>
@@ -639,9 +635,6 @@
     <t xml:space="preserve">$27.73</t>
   </si>
   <si>
-    <t xml:space="preserve">Recombivax HB</t>
-  </si>
-  <si>
     <t xml:space="preserve">00006-4995-41</t>
   </si>
   <si>
@@ -660,13 +653,13 @@
     <t xml:space="preserve">$61.22</t>
   </si>
   <si>
-    <t xml:space="preserve">HPV -Quadrivalent Human Papillomavirus Types 6, 11, 16 and 18 Recombinant Adult [5]</t>
+    <t xml:space="preserve">HPV -Quadrivalent Human Papillomavirus Types 6, 11, 16 and 18 Recombinant Adult </t>
   </si>
   <si>
     <t xml:space="preserve">$91.20</t>
   </si>
   <si>
-    <t xml:space="preserve">HPV-Human Papillomavirus Bivalent Types 16 and 18 [5]</t>
+    <t xml:space="preserve">HPV-Human Papillomavirus Bivalent Types 16 and 18 </t>
   </si>
   <si>
     <t xml:space="preserve">10 pack - 1 dose T-L syringe, No Needle</t>
@@ -675,7 +668,7 @@
     <t xml:space="preserve">$86.59</t>
   </si>
   <si>
-    <t xml:space="preserve">Measles, Mumps,  Rubella-Adult [1]</t>
+    <t xml:space="preserve">Measles, Mumps,  Rubella-Adult </t>
   </si>
   <si>
     <t xml:space="preserve">$37.04</t>
@@ -693,8 +686,7 @@
     <t xml:space="preserve">10 pack - single dose 0.5 mL vials</t>
   </si>
   <si>
-    <t xml:space="preserve">Pneumococcal
-13-valent [5] (Adult)</t>
+    <t xml:space="preserve">Pneumococcal 13-valent  (Adult)</t>
   </si>
   <si>
     <t xml:space="preserve">Prevnar 13</t>
@@ -730,7 +722,7 @@
     <t xml:space="preserve">$20.176</t>
   </si>
   <si>
-    <t xml:space="preserve">Varicella-Adult [5]</t>
+    <t xml:space="preserve">Varicella-Adult </t>
   </si>
   <si>
     <t xml:space="preserve">$60.76</t>
@@ -751,7 +743,7 @@
     <t xml:space="preserve">$173.976</t>
   </si>
   <si>
-    <t xml:space="preserve">Tetanus and Diphtheria Toxoids[3]</t>
+    <t xml:space="preserve">Tetanus and Diphtheria Toxoids</t>
   </si>
   <si>
     <t xml:space="preserve">$14.20</t>
@@ -766,7 +758,7 @@
     <t xml:space="preserve">$14.34</t>
   </si>
   <si>
-    <t xml:space="preserve">Meningococcal Conjugate [5]</t>
+    <t xml:space="preserve">Meningococcal Conjugate </t>
   </si>
   <si>
     <t xml:space="preserve">$71.654</t>
@@ -778,8 +770,7 @@
     <t xml:space="preserve">$75.31</t>
   </si>
   <si>
-    <t xml:space="preserve">Influenza [5, 6]
-(Age 6 months and older)</t>
+    <t xml:space="preserve">Influenza  (Age 6 months and older)</t>
   </si>
   <si>
     <t xml:space="preserve">Fluzone</t>
@@ -797,8 +788,7 @@
     <t xml:space="preserve">200-2014-57656</t>
   </si>
   <si>
-    <t xml:space="preserve">Fluzone
-Quadrivalent</t>
+    <t xml:space="preserve">Fluzone Quadrivalent</t>
   </si>
   <si>
     <t xml:space="preserve">49281-0621-15</t>
@@ -807,14 +797,10 @@
     <t xml:space="preserve">$13.15</t>
   </si>
   <si>
-    <t xml:space="preserve">Influenza [5]
-(Age 6-35 months)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fluzone
-Quadrivalent
-Pediatric dose
-No Preservative</t>
+    <t xml:space="preserve">Influenza  (Age 6-35 months)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fluzone Quadrivalent Pediatric dose No Preservative</t>
   </si>
   <si>
     <t xml:space="preserve">49281-0514-25</t>
@@ -826,12 +812,10 @@
     <t xml:space="preserve">$21.09</t>
   </si>
   <si>
-    <t xml:space="preserve">Influenza [5]
-(Age 36 months and older)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fluzone
-No-Preservative</t>
+    <t xml:space="preserve">Influenza  (Age 36 months and older)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fluzone No-Preservative</t>
   </si>
   <si>
     <t xml:space="preserve">49281-0014-50</t>
@@ -843,9 +827,7 @@
     <t xml:space="preserve">$12.49</t>
   </si>
   <si>
-    <t xml:space="preserve">Fluzone
-Quadrivalent
-No-Preservative</t>
+    <t xml:space="preserve">Fluzone Quadrivalent No-Preservative</t>
   </si>
   <si>
     <t xml:space="preserve">49281-0414-50</t>
@@ -866,20 +848,16 @@
     <t xml:space="preserve">$17.97</t>
   </si>
   <si>
-    <t xml:space="preserve">Influenza [5]
-(Age 36 mnthso and older)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fluarix
-Quadrivalent
-Preservative Free</t>
+    <t xml:space="preserve">Influenza  (Age 36 mnthso and older)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fluarix Quadrivalent Preservative Free</t>
   </si>
   <si>
     <t xml:space="preserve">58160-0901-52</t>
   </si>
   <si>
-    <t xml:space="preserve">10 pack- 1 dose
-TipLok syringe</t>
+    <t xml:space="preserve">10 pack- 1 dose TipLok syringe</t>
   </si>
   <si>
     <t xml:space="preserve">$13.65</t>
@@ -891,12 +869,7 @@
     <t xml:space="preserve">200-2014-57658</t>
   </si>
   <si>
-    <t xml:space="preserve">Influenza [5, 6]
-(Age 36 months and older)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FluLaval
-Quadrivalent</t>
+    <t xml:space="preserve">FluLaval Quadrivalent</t>
   </si>
   <si>
     <t xml:space="preserve">19515-0891-11</t>
@@ -908,8 +881,7 @@
     <t xml:space="preserve">$14.90</t>
   </si>
   <si>
-    <t xml:space="preserve">FluLaval
-Trivalent</t>
+    <t xml:space="preserve">FluLaval Trivalent</t>
   </si>
   <si>
     <t xml:space="preserve">19515-0893-07</t>
@@ -921,8 +893,7 @@
     <t xml:space="preserve">$7.65</t>
   </si>
   <si>
-    <t xml:space="preserve">Influenza [5, 6]
-(Age 4 years and older)</t>
+    <t xml:space="preserve">Influenza  (Age 4 years and older)</t>
   </si>
   <si>
     <t xml:space="preserve">Fluvirin</t>
@@ -940,12 +911,7 @@
     <t xml:space="preserve">200-2014-57659</t>
   </si>
   <si>
-    <t xml:space="preserve">Influenza [5]
-(Age 4 years and older)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fluvirin
-Preservative Free</t>
+    <t xml:space="preserve">Fluvirin Preservative Free</t>
   </si>
   <si>
     <t xml:space="preserve">66521-0117-02</t>
@@ -960,13 +926,10 @@
     <t xml:space="preserve">$14.81</t>
   </si>
   <si>
-    <t xml:space="preserve">Influenza [5]
-Live, Intranasal (Age 2-49 years)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FluMist
-Quadrivalent
-No Preservative</t>
+    <t xml:space="preserve">Influenza  Live, Intranasal (Age 2-49 years)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FluMist Quadrivalent No Preservative</t>
   </si>
   <si>
     <t xml:space="preserve">66019-0301-10</t>
@@ -987,19 +950,16 @@
     <t xml:space="preserve">200-2014-57657</t>
   </si>
   <si>
-    <t xml:space="preserve">Influenza [5]
-(Age 9 years and older)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Afluria
-No Preservative</t>
+    <t xml:space="preserve">Influenza  (Age 9 years and older)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Afluria No Preservative</t>
   </si>
   <si>
     <t xml:space="preserve">33332-0014-01</t>
   </si>
   <si>
-    <t xml:space="preserve">10 pack-1 dose
-syringe</t>
+    <t xml:space="preserve">10 pack-1 dose syringe</t>
   </si>
   <si>
     <t xml:space="preserve">$11.30</t>
@@ -1011,10 +971,6 @@
     <t xml:space="preserve">200-2014-57660</t>
   </si>
   <si>
-    <t xml:space="preserve">Influenza [5, 6]
-(Age 9 years and older)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Afluria</t>
   </si>
   <si>
@@ -1036,16 +992,13 @@
     <t xml:space="preserve">$12.22</t>
   </si>
   <si>
-    <t xml:space="preserve">Fluzone
-No Preservative</t>
+    <t xml:space="preserve">Fluzone No Preservative</t>
   </si>
   <si>
     <t xml:space="preserve">$8.750</t>
   </si>
   <si>
-    <t xml:space="preserve">Fluzone
-Quadrivalent
-No Preservative</t>
+    <t xml:space="preserve">Fluzone Quadrivalent No Preservative</t>
   </si>
   <si>
     <t xml:space="preserve">$13.575</t>
@@ -1054,13 +1007,10 @@
     <t xml:space="preserve">$12.965</t>
   </si>
   <si>
-    <t xml:space="preserve">Influenza [5]
-(Age 18 years and older)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flucelvax
-Preservative Free
-Antibiotic free</t>
+    <t xml:space="preserve">Influenza  (Age 18 years and older)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flucelvax Preservative Free Antibiotic free</t>
   </si>
   <si>
     <t xml:space="preserve">62577-0613-01</t>
@@ -1087,13 +1037,7 @@
     <t xml:space="preserve">200-2014-57654</t>
   </si>
   <si>
-    <t xml:space="preserve">FluLaval Quadrivalent</t>
-  </si>
-  <si>
     <t xml:space="preserve">$11.28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FluLaval Trivalent</t>
   </si>
   <si>
     <t xml:space="preserve">$5.88</t>
@@ -2683,19 +2627,19 @@
         <v>199</v>
       </c>
       <c r="B10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C10" t="s">
         <v>206</v>
-      </c>
-      <c r="C10" t="s">
-        <v>207</v>
       </c>
       <c r="D10" t="s">
         <v>12</v>
       </c>
       <c r="E10" t="s">
+        <v>207</v>
+      </c>
+      <c r="F10" t="s">
         <v>208</v>
-      </c>
-      <c r="F10" t="s">
-        <v>209</v>
       </c>
       <c r="G10" s="1">
         <v>42185</v>
@@ -2712,19 +2656,19 @@
         <v>199</v>
       </c>
       <c r="B11" t="s">
-        <v>206</v>
+        <v>79</v>
       </c>
       <c r="C11" t="s">
+        <v>209</v>
+      </c>
+      <c r="D11" t="s">
         <v>210</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
+        <v>207</v>
+      </c>
+      <c r="F11" t="s">
         <v>211</v>
-      </c>
-      <c r="E11" t="s">
-        <v>208</v>
-      </c>
-      <c r="F11" t="s">
-        <v>212</v>
       </c>
       <c r="G11" s="1">
         <v>42185</v>
@@ -2738,7 +2682,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B12" t="s">
         <v>101</v>
@@ -2750,7 +2694,7 @@
         <v>12</v>
       </c>
       <c r="E12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F12" t="s">
         <v>104</v>
@@ -2767,7 +2711,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B13" t="s">
         <v>106</v>
@@ -2776,10 +2720,10 @@
         <v>107</v>
       </c>
       <c r="D13" t="s">
+        <v>215</v>
+      </c>
+      <c r="E13" t="s">
         <v>216</v>
-      </c>
-      <c r="E13" t="s">
-        <v>217</v>
       </c>
       <c r="F13" t="s">
         <v>110</v>
@@ -2796,7 +2740,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B14" t="s">
         <v>123</v>
@@ -2808,7 +2752,7 @@
         <v>12</v>
       </c>
       <c r="E14" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F14" t="s">
         <v>126</v>
@@ -2831,16 +2775,16 @@
         <v>141</v>
       </c>
       <c r="C15" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D15" t="s">
         <v>60</v>
       </c>
       <c r="E15" t="s">
+        <v>220</v>
+      </c>
+      <c r="F15" t="s">
         <v>221</v>
-      </c>
-      <c r="F15" t="s">
-        <v>222</v>
       </c>
       <c r="G15" s="1">
         <v>42185</v>
@@ -2863,10 +2807,10 @@
         <v>142</v>
       </c>
       <c r="D16" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E16" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F16" t="s">
         <v>144</v>
@@ -2883,10 +2827,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
+        <v>223</v>
+      </c>
+      <c r="B17" t="s">
         <v>224</v>
-      </c>
-      <c r="B17" t="s">
-        <v>225</v>
       </c>
       <c r="C17" t="s">
         <v>134</v>
@@ -2895,7 +2839,7 @@
         <v>135</v>
       </c>
       <c r="E17" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F17" t="s">
         <v>137</v>
@@ -2907,7 +2851,7 @@
         <v>138</v>
       </c>
       <c r="I17" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="18">
@@ -2924,7 +2868,7 @@
         <v>54</v>
       </c>
       <c r="E18" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F18" t="s">
         <v>169</v>
@@ -2950,10 +2894,10 @@
         <v>170</v>
       </c>
       <c r="D19" t="s">
+        <v>228</v>
+      </c>
+      <c r="E19" t="s">
         <v>229</v>
-      </c>
-      <c r="E19" t="s">
-        <v>230</v>
       </c>
       <c r="F19" t="s">
         <v>169</v>
@@ -2982,7 +2926,7 @@
         <v>54</v>
       </c>
       <c r="E20" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F20" t="s">
         <v>174</v>
@@ -2991,10 +2935,10 @@
         <v>42185</v>
       </c>
       <c r="H20" t="s">
+        <v>231</v>
+      </c>
+      <c r="I20" t="s">
         <v>232</v>
-      </c>
-      <c r="I20" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="21">
@@ -3008,10 +2952,10 @@
         <v>175</v>
       </c>
       <c r="D21" t="s">
+        <v>233</v>
+      </c>
+      <c r="E21" t="s">
         <v>234</v>
-      </c>
-      <c r="E21" t="s">
-        <v>235</v>
       </c>
       <c r="F21" t="s">
         <v>174</v>
@@ -3020,15 +2964,15 @@
         <v>42185</v>
       </c>
       <c r="H21" t="s">
+        <v>231</v>
+      </c>
+      <c r="I21" t="s">
         <v>232</v>
-      </c>
-      <c r="I21" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B22" t="s">
         <v>178</v>
@@ -3040,7 +2984,7 @@
         <v>12</v>
       </c>
       <c r="E22" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F22" t="s">
         <v>181</v>
@@ -3057,22 +3001,22 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
+        <v>237</v>
+      </c>
+      <c r="B23" t="s">
         <v>238</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
         <v>239</v>
-      </c>
-      <c r="C23" t="s">
-        <v>240</v>
       </c>
       <c r="D23" t="s">
         <v>54</v>
       </c>
       <c r="E23" t="s">
+        <v>240</v>
+      </c>
+      <c r="F23" t="s">
         <v>241</v>
-      </c>
-      <c r="F23" t="s">
-        <v>242</v>
       </c>
       <c r="G23" s="1">
         <v>42185</v>
@@ -3086,7 +3030,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B24" t="s">
         <v>159</v>
@@ -3098,24 +3042,24 @@
         <v>54</v>
       </c>
       <c r="E24" t="s">
+        <v>243</v>
+      </c>
+      <c r="F24" t="s">
         <v>244</v>
-      </c>
-      <c r="F24" t="s">
-        <v>245</v>
       </c>
       <c r="G24" s="1">
         <v>42185</v>
       </c>
       <c r="H24" t="s">
+        <v>231</v>
+      </c>
+      <c r="I24" t="s">
         <v>232</v>
-      </c>
-      <c r="I24" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B25" t="s">
         <v>159</v>
@@ -3124,27 +3068,27 @@
         <v>160</v>
       </c>
       <c r="D25" t="s">
+        <v>245</v>
+      </c>
+      <c r="E25" t="s">
         <v>246</v>
       </c>
-      <c r="E25" t="s">
-        <v>247</v>
-      </c>
       <c r="F25" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G25" s="1">
         <v>42185</v>
       </c>
       <c r="H25" t="s">
+        <v>231</v>
+      </c>
+      <c r="I25" t="s">
         <v>232</v>
-      </c>
-      <c r="I25" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B26" t="s">
         <v>117</v>
@@ -3156,7 +3100,7 @@
         <v>114</v>
       </c>
       <c r="E26" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F26" t="s">
         <v>119</v>
@@ -3168,12 +3112,12 @@
         <v>120</v>
       </c>
       <c r="I26" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B27" t="s">
         <v>112</v>
@@ -3185,7 +3129,7 @@
         <v>114</v>
       </c>
       <c r="E27" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F27" t="s">
         <v>116</v>
@@ -3194,10 +3138,10 @@
         <v>42185</v>
       </c>
       <c r="H27" t="s">
+        <v>231</v>
+      </c>
+      <c r="I27" t="s">
         <v>232</v>
-      </c>
-      <c r="I27" t="s">
-        <v>233</v>
       </c>
     </row>
   </sheetData>
@@ -3247,22 +3191,22 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B2" t="s">
         <v>252</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>253</v>
-      </c>
-      <c r="C2" t="s">
-        <v>254</v>
       </c>
       <c r="D2" t="s">
         <v>48</v>
       </c>
       <c r="E2" t="s">
+        <v>254</v>
+      </c>
+      <c r="F2" t="s">
         <v>255</v>
-      </c>
-      <c r="F2" t="s">
-        <v>256</v>
       </c>
       <c r="G2" s="1">
         <v>42063</v>
@@ -3271,24 +3215,24 @@
         <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B3" t="s">
+        <v>257</v>
+      </c>
+      <c r="C3" t="s">
         <v>258</v>
-      </c>
-      <c r="C3" t="s">
-        <v>259</v>
       </c>
       <c r="D3" t="s">
         <v>48</v>
       </c>
       <c r="E3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F3" t="s">
         <v>64</v>
@@ -3300,27 +3244,27 @@
         <v>15</v>
       </c>
       <c r="I3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>260</v>
+      </c>
+      <c r="B4" t="s">
         <v>261</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>262</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
+        <v>245</v>
+      </c>
+      <c r="E4" t="s">
         <v>263</v>
       </c>
-      <c r="D4" t="s">
-        <v>246</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>264</v>
-      </c>
-      <c r="F4" t="s">
-        <v>265</v>
       </c>
       <c r="G4" s="1">
         <v>42063</v>
@@ -3329,27 +3273,27 @@
         <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>265</v>
+      </c>
+      <c r="B5" t="s">
         <v>266</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>267</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
+        <v>245</v>
+      </c>
+      <c r="E5" t="s">
         <v>268</v>
       </c>
-      <c r="D5" t="s">
-        <v>246</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>269</v>
-      </c>
-      <c r="F5" t="s">
-        <v>270</v>
       </c>
       <c r="G5" s="1">
         <v>42063</v>
@@ -3358,27 +3302,27 @@
         <v>15</v>
       </c>
       <c r="I5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B6" t="s">
+        <v>270</v>
+      </c>
+      <c r="C6" t="s">
         <v>271</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
+        <v>245</v>
+      </c>
+      <c r="E6" t="s">
         <v>272</v>
       </c>
-      <c r="D6" t="s">
-        <v>246</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>273</v>
-      </c>
-      <c r="F6" t="s">
-        <v>274</v>
       </c>
       <c r="G6" s="1">
         <v>42063</v>
@@ -3387,27 +3331,27 @@
         <v>15</v>
       </c>
       <c r="I6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B7" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C7" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D7" t="s">
         <v>54</v>
       </c>
       <c r="E7" t="s">
+        <v>275</v>
+      </c>
+      <c r="F7" t="s">
         <v>276</v>
-      </c>
-      <c r="F7" t="s">
-        <v>277</v>
       </c>
       <c r="G7" s="1">
         <v>42063</v>
@@ -3416,27 +3360,27 @@
         <v>15</v>
       </c>
       <c r="I7" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>277</v>
+      </c>
+      <c r="B8" t="s">
         <v>278</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>279</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>280</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>281</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>282</v>
-      </c>
-      <c r="F8" t="s">
-        <v>283</v>
       </c>
       <c r="G8" s="1">
         <v>42063</v>
@@ -3445,27 +3389,27 @@
         <v>21</v>
       </c>
       <c r="I8" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>265</v>
+      </c>
+      <c r="B9" t="s">
+        <v>284</v>
+      </c>
+      <c r="C9" t="s">
         <v>285</v>
-      </c>
-      <c r="B9" t="s">
-        <v>286</v>
-      </c>
-      <c r="C9" t="s">
-        <v>287</v>
       </c>
       <c r="D9" t="s">
         <v>48</v>
       </c>
       <c r="E9" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F9" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="G9" s="1">
         <v>42063</v>
@@ -3474,27 +3418,27 @@
         <v>21</v>
       </c>
       <c r="I9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>285</v>
+        <v>265</v>
       </c>
       <c r="B10" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C10" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D10" t="s">
         <v>48</v>
       </c>
       <c r="E10" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="F10" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="G10" s="1">
         <v>42063</v>
@@ -3503,27 +3447,27 @@
         <v>21</v>
       </c>
       <c r="I10" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
+        <v>292</v>
+      </c>
+      <c r="B11" t="s">
+        <v>293</v>
+      </c>
+      <c r="C11" t="s">
         <v>294</v>
-      </c>
-      <c r="B11" t="s">
-        <v>295</v>
-      </c>
-      <c r="C11" t="s">
-        <v>296</v>
       </c>
       <c r="D11" t="s">
         <v>48</v>
       </c>
       <c r="E11" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F11" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G11" s="1">
         <v>42063</v>
@@ -3532,27 +3476,27 @@
         <v>120</v>
       </c>
       <c r="I11" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
+        <v>292</v>
+      </c>
+      <c r="B12" t="s">
+        <v>298</v>
+      </c>
+      <c r="C12" t="s">
+        <v>299</v>
+      </c>
+      <c r="D12" t="s">
         <v>300</v>
       </c>
-      <c r="B12" t="s">
+      <c r="E12" t="s">
         <v>301</v>
       </c>
-      <c r="C12" t="s">
+      <c r="F12" t="s">
         <v>302</v>
-      </c>
-      <c r="D12" t="s">
-        <v>303</v>
-      </c>
-      <c r="E12" t="s">
-        <v>304</v>
-      </c>
-      <c r="F12" t="s">
-        <v>305</v>
       </c>
       <c r="G12" s="1">
         <v>42063</v>
@@ -3561,94 +3505,94 @@
         <v>120</v>
       </c>
       <c r="I12" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
+        <v>303</v>
+      </c>
+      <c r="B13" t="s">
+        <v>304</v>
+      </c>
+      <c r="C13" t="s">
+        <v>305</v>
+      </c>
+      <c r="D13" t="s">
         <v>306</v>
       </c>
-      <c r="B13" t="s">
+      <c r="E13" t="s">
         <v>307</v>
       </c>
-      <c r="C13" t="s">
+      <c r="F13" t="s">
         <v>308</v>
-      </c>
-      <c r="D13" t="s">
-        <v>309</v>
-      </c>
-      <c r="E13" t="s">
-        <v>310</v>
-      </c>
-      <c r="F13" t="s">
-        <v>311</v>
       </c>
       <c r="G13" s="1">
         <v>42063</v>
       </c>
       <c r="H13" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="I13" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
+        <v>311</v>
+      </c>
+      <c r="B14" t="s">
+        <v>312</v>
+      </c>
+      <c r="C14" t="s">
+        <v>313</v>
+      </c>
+      <c r="D14" t="s">
         <v>314</v>
       </c>
-      <c r="B14" t="s">
+      <c r="E14" t="s">
+        <v>254</v>
+      </c>
+      <c r="F14" t="s">
         <v>315</v>
-      </c>
-      <c r="C14" t="s">
-        <v>316</v>
-      </c>
-      <c r="D14" t="s">
-        <v>317</v>
-      </c>
-      <c r="E14" t="s">
-        <v>255</v>
-      </c>
-      <c r="F14" t="s">
-        <v>318</v>
       </c>
       <c r="G14" s="1">
         <v>42063</v>
       </c>
       <c r="H14" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="I14" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="B15" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="C15" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="D15" t="s">
         <v>48</v>
       </c>
       <c r="E15" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="F15" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="G15" s="1">
         <v>42063</v>
       </c>
       <c r="H15" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="I15" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
   </sheetData>
@@ -3698,22 +3642,22 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B2" t="s">
         <v>252</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>253</v>
-      </c>
-      <c r="C2" t="s">
-        <v>254</v>
       </c>
       <c r="D2" t="s">
         <v>48</v>
       </c>
       <c r="E2" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="F2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G2" s="1">
         <v>42063</v>
@@ -3722,24 +3666,24 @@
         <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B3" t="s">
+        <v>257</v>
+      </c>
+      <c r="C3" t="s">
         <v>258</v>
-      </c>
-      <c r="C3" t="s">
-        <v>259</v>
       </c>
       <c r="D3" t="s">
         <v>48</v>
       </c>
       <c r="E3" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="F3" t="s">
         <v>64</v>
@@ -3751,27 +3695,27 @@
         <v>15</v>
       </c>
       <c r="I3" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B4" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E4" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="F4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G4" s="1">
         <v>42063</v>
@@ -3780,27 +3724,27 @@
         <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>285</v>
+        <v>265</v>
       </c>
       <c r="B5" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="C5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D5" t="s">
         <v>54</v>
       </c>
       <c r="E5" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="F5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G5" s="1">
         <v>42063</v>
@@ -3809,27 +3753,27 @@
         <v>15</v>
       </c>
       <c r="I5" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>285</v>
+        <v>265</v>
       </c>
       <c r="B6" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="C6" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E6" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="F6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G6" s="1">
         <v>42063</v>
@@ -3838,27 +3782,27 @@
         <v>15</v>
       </c>
       <c r="I6" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>330</v>
+      </c>
+      <c r="B7" t="s">
+        <v>331</v>
+      </c>
+      <c r="C7" t="s">
+        <v>332</v>
+      </c>
+      <c r="D7" t="s">
+        <v>245</v>
+      </c>
+      <c r="E7" t="s">
+        <v>333</v>
+      </c>
+      <c r="F7" t="s">
         <v>334</v>
-      </c>
-      <c r="B7" t="s">
-        <v>335</v>
-      </c>
-      <c r="C7" t="s">
-        <v>336</v>
-      </c>
-      <c r="D7" t="s">
-        <v>246</v>
-      </c>
-      <c r="E7" t="s">
-        <v>337</v>
-      </c>
-      <c r="F7" t="s">
-        <v>338</v>
       </c>
       <c r="G7" s="1">
         <v>42063</v>
@@ -3867,27 +3811,27 @@
         <v>120</v>
       </c>
       <c r="I7" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>292</v>
+      </c>
+      <c r="B8" t="s">
+        <v>293</v>
+      </c>
+      <c r="C8" t="s">
         <v>294</v>
-      </c>
-      <c r="B8" t="s">
-        <v>295</v>
-      </c>
-      <c r="C8" t="s">
-        <v>296</v>
       </c>
       <c r="D8" t="s">
         <v>48</v>
       </c>
       <c r="E8" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="F8" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G8" s="1">
         <v>42063</v>
@@ -3896,27 +3840,27 @@
         <v>120</v>
       </c>
       <c r="I8" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>292</v>
+      </c>
+      <c r="B9" t="s">
+        <v>298</v>
+      </c>
+      <c r="C9" t="s">
+        <v>299</v>
+      </c>
+      <c r="D9" t="s">
         <v>300</v>
       </c>
-      <c r="B9" t="s">
-        <v>301</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="E9" t="s">
+        <v>337</v>
+      </c>
+      <c r="F9" t="s">
         <v>302</v>
-      </c>
-      <c r="D9" t="s">
-        <v>303</v>
-      </c>
-      <c r="E9" t="s">
-        <v>341</v>
-      </c>
-      <c r="F9" t="s">
-        <v>305</v>
       </c>
       <c r="G9" s="1">
         <v>42063</v>
@@ -3925,27 +3869,27 @@
         <v>120</v>
       </c>
       <c r="I9" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B10" t="s">
+        <v>278</v>
+      </c>
+      <c r="C10" t="s">
         <v>279</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>280</v>
       </c>
-      <c r="D10" t="s">
-        <v>281</v>
-      </c>
       <c r="E10" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="F10" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G10" s="1">
         <v>42063</v>
@@ -3954,27 +3898,27 @@
         <v>21</v>
       </c>
       <c r="I10" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
+        <v>265</v>
+      </c>
+      <c r="B11" t="s">
+        <v>284</v>
+      </c>
+      <c r="C11" t="s">
         <v>285</v>
-      </c>
-      <c r="B11" t="s">
-        <v>344</v>
-      </c>
-      <c r="C11" t="s">
-        <v>287</v>
       </c>
       <c r="D11" t="s">
         <v>48</v>
       </c>
       <c r="E11" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="F11" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="G11" s="1">
         <v>42063</v>
@@ -3983,27 +3927,27 @@
         <v>21</v>
       </c>
       <c r="I11" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>285</v>
+        <v>265</v>
       </c>
       <c r="B12" t="s">
-        <v>346</v>
+        <v>288</v>
       </c>
       <c r="C12" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D12" t="s">
         <v>48</v>
       </c>
       <c r="E12" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="F12" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="G12" s="1">
         <v>42063</v>
@@ -4012,65 +3956,65 @@
         <v>21</v>
       </c>
       <c r="I12" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
+        <v>311</v>
+      </c>
+      <c r="B13" t="s">
+        <v>312</v>
+      </c>
+      <c r="C13" t="s">
+        <v>313</v>
+      </c>
+      <c r="D13" t="s">
         <v>314</v>
       </c>
-      <c r="B13" t="s">
+      <c r="E13" t="s">
+        <v>342</v>
+      </c>
+      <c r="F13" t="s">
         <v>315</v>
-      </c>
-      <c r="C13" t="s">
-        <v>316</v>
-      </c>
-      <c r="D13" t="s">
-        <v>317</v>
-      </c>
-      <c r="E13" t="s">
-        <v>348</v>
-      </c>
-      <c r="F13" t="s">
-        <v>318</v>
       </c>
       <c r="G13" s="1">
         <v>42063</v>
       </c>
       <c r="H13" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="I13" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
+        <v>311</v>
+      </c>
+      <c r="B14" t="s">
+        <v>318</v>
+      </c>
+      <c r="C14" t="s">
+        <v>319</v>
+      </c>
+      <c r="D14" t="s">
+        <v>344</v>
+      </c>
+      <c r="E14" t="s">
+        <v>345</v>
+      </c>
+      <c r="F14" t="s">
         <v>321</v>
-      </c>
-      <c r="B14" t="s">
-        <v>322</v>
-      </c>
-      <c r="C14" t="s">
-        <v>323</v>
-      </c>
-      <c r="D14" t="s">
-        <v>350</v>
-      </c>
-      <c r="E14" t="s">
-        <v>351</v>
-      </c>
-      <c r="F14" t="s">
-        <v>325</v>
       </c>
       <c r="G14" s="1">
         <v>42063</v>
       </c>
       <c r="H14" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="I14" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
     </row>
   </sheetData>
